--- a/data/trans_camb/P73-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P73-Clase-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 2,53</t>
+          <t>-8,7; 3,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,19; -8,46</t>
+          <t>-20,5; -7,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 13,43</t>
+          <t>-1,74; 13,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 3,5</t>
+          <t>-10,95; 4,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 5,1</t>
+          <t>-4,75; 5,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,68; -4,34</t>
+          <t>-14,61; -5,1</t>
         </is>
       </c>
     </row>
@@ -715,22 +715,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 3,45</t>
+          <t>-11,06; 4,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,98; -11,2</t>
+          <t>-26,12; -10,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 22,32</t>
+          <t>-2,51; 21,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 5,56</t>
+          <t>-15,94; 6,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,9; -6,37</t>
+          <t>-19,89; -7,34</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 8,84</t>
+          <t>-5,38; 8,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 12,82</t>
+          <t>-0,79; 12,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 13,91</t>
+          <t>0,35; 14,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 7,81</t>
+          <t>-7,54; 7,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 9,67</t>
+          <t>-0,16; 9,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 8,28</t>
+          <t>-1,78; 7,57</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 13,18</t>
+          <t>-7,2; 12,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 19,29</t>
+          <t>-1,05; 18,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 22,37</t>
+          <t>0,6; 23,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 12,52</t>
+          <t>-10,9; 11,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 14,81</t>
+          <t>-0,28; 14,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 12,59</t>
+          <t>-2,58; 11,52</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 5,41</t>
+          <t>-5,14; 5,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 3,67</t>
+          <t>-6,48; 3,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 5,61</t>
+          <t>-12,74; 4,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 3,92</t>
+          <t>-16,95; 2,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 2,99</t>
+          <t>-5,71; 2,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 1,42</t>
+          <t>-7,67; 1,68</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 7,37</t>
+          <t>-6,56; 7,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 5,04</t>
+          <t>-8,24; 4,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 8,05</t>
+          <t>-16,1; 6,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 5,11</t>
+          <t>-22,48; 3,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 4,14</t>
+          <t>-7,48; 3,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 1,94</t>
+          <t>-9,98; 2,27</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 2,35</t>
+          <t>-5,63; 1,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 4,32</t>
+          <t>-3,53; 4,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 10,2</t>
+          <t>0,2; 10,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 2,1</t>
+          <t>-7,94; 2,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 3,8</t>
+          <t>-2,3; 3,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 1,51</t>
+          <t>-4,53; 1,64</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 3,37</t>
+          <t>-7,78; 2,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 6,22</t>
+          <t>-4,79; 6,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,86; 17,58</t>
+          <t>0,29; 17,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 3,61</t>
+          <t>-12,15; 4,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 5,74</t>
+          <t>-3,32; 5,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 2,33</t>
+          <t>-6,46; 2,47</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 6,77</t>
+          <t>-6,32; 6,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 5,67</t>
+          <t>-7,56; 5,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 3,17</t>
+          <t>-7,46; 2,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,38; -1,09</t>
+          <t>-11,56; -0,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 2,68</t>
+          <t>-5,41; 3,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,16; -0,75</t>
+          <t>-9,47; -0,81</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 11,84</t>
+          <t>-10,01; 11,81</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 10,31</t>
+          <t>-11,67; 9,26</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 4,89</t>
+          <t>-10,3; 3,91</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,9; -1,67</t>
+          <t>-16,06; -1,24</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 4,21</t>
+          <t>-7,79; 5,47</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-13,38; -1,17</t>
+          <t>-13,46; -1,15</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,82</t>
+          <t>-3,8; 0,86</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 4,7</t>
+          <t>-1,07; 4,65</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 3,6</t>
+          <t>-4,6; 3,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 3,78</t>
+          <t>-4,72; 3,58</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 2,69</t>
+          <t>-4,58; 2,93</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 2,83</t>
+          <t>-4,77; 2,73</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 348,25</t>
+          <t>-100,0; 301,68</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-46,0; 536,4</t>
+          <t>-46,44; 647,73</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 6,42</t>
+          <t>-7,73; 6,14</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 6,92</t>
+          <t>-7,97; 6,37</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 5,99</t>
+          <t>-9,45; 6,55</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 6,37</t>
+          <t>-9,78; 6,11</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 2,09</t>
+          <t>-2,54; 1,98</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 0,56</t>
+          <t>-4,17; 0,54</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 4,29</t>
+          <t>0,03; 4,67</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,12</t>
+          <t>-4,71; 0,16</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,71</t>
+          <t>-0,84; 2,64</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,59; -0,38</t>
+          <t>-3,59; -0,26</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 3,24</t>
+          <t>-3,82; 3,09</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 0,88</t>
+          <t>-6,28; 0,85</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 6,95</t>
+          <t>0,04; 7,61</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 0,19</t>
+          <t>-7,37; 0,26</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 4,3</t>
+          <t>-1,32; 4,16</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-5,51; -0,59</t>
+          <t>-5,54; -0,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P73-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P73-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
